--- a/data/trans_bre/P21D_3_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P21D_3_R-Clase-trans_bre.xlsx
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.007095143806668</v>
+        <v>0.9209472895739433</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
     </row>
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.05612993563224571</v>
+        <v>0.05612993563224567</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.1999887144228117</v>
+        <v>0.1999887144228115</v>
       </c>
     </row>
     <row r="17">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.8227431962426572</v>
+        <v>-0.8668148379266966</v>
       </c>
       <c r="D17" s="6" t="inlineStr"/>
     </row>
@@ -730,7 +730,7 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6718345439794616</v>
+        <v>0.6787908022699187</v>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
     </row>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.09877184848605827</v>
+        <v>-0.06510518583468471</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
     </row>
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2444191672537824</v>
+        <v>0.2690641572087752</v>
       </c>
       <c r="D24" s="6" t="inlineStr"/>
     </row>
